--- a/data/trans_orig/P34-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>71622</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57252</v>
+        <v>57276</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88466</v>
+        <v>88458</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1038229704482579</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08299144834493948</v>
+        <v>0.08302690192197146</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1282399006564782</v>
+        <v>0.1282280296940709</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -765,19 +765,19 @@
         <v>17611</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11262</v>
+        <v>11364</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27097</v>
+        <v>26678</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02564599203751561</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01640084856488432</v>
+        <v>0.01654831161418651</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03946020021004992</v>
+        <v>0.03885040605847248</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>89</v>
@@ -786,19 +786,19 @@
         <v>89233</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>74724</v>
+        <v>72046</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>109239</v>
+        <v>108629</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06482420997898632</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05428382762258974</v>
+        <v>0.05233841984500474</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07935761941611982</v>
+        <v>0.07891434472723388</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>122065</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>103500</v>
+        <v>103565</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144138</v>
+        <v>142142</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1769432873591713</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1500319002034122</v>
+        <v>0.1501260715695113</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2089407521611708</v>
+        <v>0.2060477980756131</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -836,19 +836,19 @@
         <v>51554</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39362</v>
+        <v>39655</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66968</v>
+        <v>66516</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07507540634423404</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05732182571280305</v>
+        <v>0.05774773676844457</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09752316537548443</v>
+        <v>0.09686414502602975</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>168</v>
@@ -857,19 +857,19 @@
         <v>173618</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>149533</v>
+        <v>150139</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>199354</v>
+        <v>199310</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1261262671573787</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1086292085229609</v>
+        <v>0.1090698466620665</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1448225901203743</v>
+        <v>0.1447908079498378</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>269784</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>244099</v>
+        <v>245776</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>295963</v>
+        <v>298806</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3910763112469196</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.353843227537427</v>
+        <v>0.3562745676644393</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4290245839406549</v>
+        <v>0.4331464184238227</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>438</v>
@@ -907,19 +907,19 @@
         <v>434559</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>407261</v>
+        <v>409381</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>457004</v>
+        <v>457273</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6328297730993151</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5930772262389611</v>
+        <v>0.596164431083963</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6655157549394761</v>
+        <v>0.6659084276755982</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>701</v>
@@ -928,19 +928,19 @@
         <v>704342</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>665562</v>
+        <v>668364</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>740589</v>
+        <v>739787</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5116755662074214</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4835035733194206</v>
+        <v>0.4855386893805322</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5380074343471328</v>
+        <v>0.537424795992667</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>226380</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>203393</v>
+        <v>201246</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>251018</v>
+        <v>248621</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3281574309456514</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2948355444814342</v>
+        <v>0.2917241748387963</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.363873142742972</v>
+        <v>0.3603986784163082</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>187</v>
@@ -978,19 +978,19 @@
         <v>182968</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>162092</v>
+        <v>160744</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>208256</v>
+        <v>206480</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2664488285189353</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2360484552133599</v>
+        <v>0.2340851816185457</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3032753336273341</v>
+        <v>0.3006880189751584</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>416</v>
@@ -999,19 +999,19 @@
         <v>409347</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>377433</v>
+        <v>375206</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>443808</v>
+        <v>444091</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2973739566562136</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2741896021121074</v>
+        <v>0.2725715501946628</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3224077863979349</v>
+        <v>0.3226134952573206</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>76698</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>60775</v>
+        <v>60731</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>96258</v>
+        <v>96392</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08017156943143861</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06352712089110714</v>
+        <v>0.0634806466750701</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1006166041298257</v>
+        <v>0.1007570148808863</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>46</v>
@@ -1124,19 +1124,19 @@
         <v>46598</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>34728</v>
+        <v>35381</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>61695</v>
+        <v>61393</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04837674174068343</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03605339572812027</v>
+        <v>0.0367317570561911</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0640498080840546</v>
+        <v>0.06373652767374292</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>116</v>
@@ -1145,19 +1145,19 @@
         <v>123297</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>101804</v>
+        <v>101594</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>143459</v>
+        <v>144851</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06421984973821228</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05302546889088273</v>
+        <v>0.05291594700945737</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07472131856498179</v>
+        <v>0.0754465732334713</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>154304</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>131701</v>
+        <v>131863</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>177592</v>
+        <v>179220</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1612913636619044</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1376650504201371</v>
+        <v>0.1378338337914786</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.185633797132005</v>
+        <v>0.1873355074934632</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -1195,19 +1195,19 @@
         <v>51964</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38014</v>
+        <v>38263</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68237</v>
+        <v>68161</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05394676679209202</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03946481958779682</v>
+        <v>0.03972326299184854</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07084157098835704</v>
+        <v>0.07076208528358688</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>185</v>
@@ -1216,19 +1216,19 @@
         <v>206268</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>177921</v>
+        <v>182183</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>233935</v>
+        <v>240449</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1074357197029496</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09267104124515031</v>
+        <v>0.09489099555724234</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1218463694026996</v>
+        <v>0.1252393436228517</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>362581</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>333524</v>
+        <v>335147</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>398018</v>
+        <v>393298</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3789991969238699</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3486265962315896</v>
+        <v>0.3503234493608768</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4160411877022696</v>
+        <v>0.4111077382127673</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>537</v>
@@ -1266,19 +1266,19 @@
         <v>578340</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>549125</v>
+        <v>550206</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>609870</v>
+        <v>609573</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.600412080660777</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.570082638825213</v>
+        <v>0.5712043206285345</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6331460710316562</v>
+        <v>0.6328371539114946</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>875</v>
@@ -1287,19 +1287,19 @@
         <v>940920</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>893371</v>
+        <v>899429</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>987096</v>
+        <v>985185</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4900838139626032</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4653177062731187</v>
+        <v>0.468473001179754</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5141349464050594</v>
+        <v>0.5131396105423107</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>363096</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>331198</v>
+        <v>331209</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>393572</v>
+        <v>390906</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3795378699827871</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3461953557063441</v>
+        <v>0.3462071898599995</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4113943402169613</v>
+        <v>0.4086077455262646</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>273</v>
@@ -1337,19 +1337,19 @@
         <v>286336</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>257950</v>
+        <v>259572</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>313961</v>
+        <v>314959</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2972644108064475</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.267795019813738</v>
+        <v>0.2694786761751584</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3259437856025774</v>
+        <v>0.3269789318388785</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>618</v>
@@ -1358,19 +1358,19 @@
         <v>649432</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>608315</v>
+        <v>606470</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>692038</v>
+        <v>691787</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3382606165962349</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3168445953590882</v>
+        <v>0.3158834746225445</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.360452164290695</v>
+        <v>0.3603211445197608</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>38115</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>27712</v>
+        <v>26574</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>52601</v>
+        <v>52579</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05676390191043564</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04127103093318674</v>
+        <v>0.03957579405966782</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07833613142349566</v>
+        <v>0.0783040342996691</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1483,19 +1483,19 @@
         <v>22728</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15067</v>
+        <v>15092</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34331</v>
+        <v>34727</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03347114306236028</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02218933124654957</v>
+        <v>0.02222620535420744</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05055999809622808</v>
+        <v>0.05114214432662557</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>56</v>
@@ -1504,19 +1504,19 @@
         <v>60843</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>45140</v>
+        <v>46692</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>77747</v>
+        <v>78055</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04505241450528753</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0334245751572476</v>
+        <v>0.0345741911373119</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05756942904407276</v>
+        <v>0.05779754025076665</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>109478</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>89437</v>
+        <v>91488</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>128741</v>
+        <v>130651</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1630408732450552</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1331957719853575</v>
+        <v>0.1362496057472926</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1917292785629718</v>
+        <v>0.1945740268440348</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>46</v>
@@ -1554,19 +1554,19 @@
         <v>44492</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>32563</v>
+        <v>33207</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>58794</v>
+        <v>58559</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06552415846305114</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04795611860367672</v>
+        <v>0.0489035084016755</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0865865117839284</v>
+        <v>0.08624057527473963</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>148</v>
@@ -1575,19 +1575,19 @@
         <v>153970</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>131952</v>
+        <v>130930</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>180893</v>
+        <v>179395</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1140099368750928</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09770601727968473</v>
+        <v>0.09694942056870037</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1339456412883951</v>
+        <v>0.1328359496843284</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>278874</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>252127</v>
+        <v>253676</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>305172</v>
+        <v>304566</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4153168817807558</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3754828936171594</v>
+        <v>0.377790023846027</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4544804525549591</v>
+        <v>0.4535778074885954</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>440</v>
@@ -1625,19 +1625,19 @@
         <v>431562</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>405378</v>
+        <v>406816</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>455433</v>
+        <v>454828</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6355630456737739</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5970015559729041</v>
+        <v>0.5991201559007899</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6707179830142231</v>
+        <v>0.6698270255356042</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>706</v>
@@ -1646,19 +1646,19 @@
         <v>710437</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>671339</v>
+        <v>675745</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>747718</v>
+        <v>743738</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5260555963868361</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4971051871882497</v>
+        <v>0.5003673773232862</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.553661546559331</v>
+        <v>0.5507140781313465</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>245006</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>217628</v>
+        <v>220582</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>271422</v>
+        <v>270750</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3648783430637534</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3241046683247275</v>
+        <v>0.3285042968457861</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4042177012831875</v>
+        <v>0.4032172752297148</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>183</v>
@@ -1696,19 +1696,19 @@
         <v>180241</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>157984</v>
+        <v>158178</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>203818</v>
+        <v>203534</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2654416528008147</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2326639582317669</v>
+        <v>0.2329488596320915</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3001636198041985</v>
+        <v>0.2997460360588428</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>415</v>
@@ -1717,19 +1717,19 @@
         <v>425247</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>393457</v>
+        <v>392724</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>460150</v>
+        <v>459049</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3148820522327836</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2913424115245252</v>
+        <v>0.2907996840704324</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3407264574441917</v>
+        <v>0.3399112786009053</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>55824</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42637</v>
+        <v>43099</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>70461</v>
+        <v>70959</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06033968084798979</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0460856011898552</v>
+        <v>0.04658519976819871</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07615981097623119</v>
+        <v>0.07669859136103391</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -1842,19 +1842,19 @@
         <v>48423</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35440</v>
+        <v>34505</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62279</v>
+        <v>62500</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0472774787670704</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03460143366106116</v>
+        <v>0.03368868130857867</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06080512703168703</v>
+        <v>0.06102144003366124</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>104</v>
@@ -1863,19 +1863,19 @@
         <v>104248</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>85020</v>
+        <v>85908</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>124744</v>
+        <v>125860</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05347667519035409</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04361350792409883</v>
+        <v>0.04406897622932601</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06399107349699097</v>
+        <v>0.06456346993430059</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>133870</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>110345</v>
+        <v>114198</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>154151</v>
+        <v>156546</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1446979581232522</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1192707649224668</v>
+        <v>0.1234347575588592</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1666197021196293</v>
+        <v>0.1692087198206815</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>77</v>
@@ -1913,19 +1913,19 @@
         <v>81763</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>66619</v>
+        <v>65948</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>101593</v>
+        <v>101133</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07982877986904077</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06504251567859981</v>
+        <v>0.06438802991754843</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09918958826397405</v>
+        <v>0.098740139883186</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>214</v>
@@ -1934,19 +1934,19 @@
         <v>215633</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>190465</v>
+        <v>191172</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>245952</v>
+        <v>247347</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1106150726643636</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09770454324953506</v>
+        <v>0.0980670873302137</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1261679243302954</v>
+        <v>0.1268836848184379</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>312659</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>283904</v>
+        <v>285158</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>340884</v>
+        <v>339970</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3379490466864974</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3068676239823366</v>
+        <v>0.3082234345022506</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3684571700338317</v>
+        <v>0.3674691105089248</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>474</v>
@@ -1984,19 +1984,19 @@
         <v>495451</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>462060</v>
+        <v>463154</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>527985</v>
+        <v>526970</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4837286747005943</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4511269548072416</v>
+        <v>0.4521957980893642</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5154923537100123</v>
+        <v>0.5145018127181999</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>801</v>
@@ -2005,19 +2005,19 @@
         <v>808111</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>767267</v>
+        <v>766312</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>854320</v>
+        <v>853319</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4145430547741717</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3935909124812758</v>
+        <v>0.3931008692726266</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.438247262747725</v>
+        <v>0.4377339694179795</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>422814</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>393310</v>
+        <v>393065</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>450572</v>
+        <v>453772</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4570133143422606</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.425123433057128</v>
+        <v>0.4248579688797041</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4870165835471057</v>
+        <v>0.490476299717238</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>386</v>
@@ -2055,19 +2055,19 @@
         <v>398596</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>366126</v>
+        <v>368924</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>428344</v>
+        <v>432640</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3891650666632945</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3574634368219435</v>
+        <v>0.3601953415096279</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4182089686899736</v>
+        <v>0.4224036509537617</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>841</v>
@@ -2076,19 +2076,19 @@
         <v>821410</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>778223</v>
+        <v>777061</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>864645</v>
+        <v>865941</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4213651973711106</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3992109849303326</v>
+        <v>0.3986151091241683</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4435435676403605</v>
+        <v>0.4442087351291275</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>242261</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>216247</v>
+        <v>211378</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>276015</v>
+        <v>273872</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07469868004717445</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06667759119386284</v>
+        <v>0.06517647825757679</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08510656277663578</v>
+        <v>0.08444561061113411</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>134</v>
@@ -2201,19 +2201,19 @@
         <v>135360</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>115163</v>
+        <v>113331</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>160559</v>
+        <v>158841</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04036759924225853</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03434440052920426</v>
+        <v>0.0337980370527349</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04788265222110635</v>
+        <v>0.04737011692927428</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>365</v>
@@ -2222,19 +2222,19 @@
         <v>377621</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>339864</v>
+        <v>340587</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>416365</v>
+        <v>414239</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05724684967922659</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05152295733622467</v>
+        <v>0.0516325606789712</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.06312041071997633</v>
+        <v>0.06279821506188517</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>519716</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>479481</v>
+        <v>474717</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>563611</v>
+        <v>560724</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1602493460940966</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1478433749886873</v>
+        <v>0.1463742702312716</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.173783810381117</v>
+        <v>0.1728937186200261</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>220</v>
@@ -2272,19 +2272,19 @@
         <v>229773</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>204026</v>
+        <v>200597</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>264307</v>
+        <v>261399</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06852376919024775</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06084536035584499</v>
+        <v>0.05982270529913327</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07882259424144733</v>
+        <v>0.07795533479655634</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>715</v>
@@ -2293,19 +2293,19 @@
         <v>749489</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>699081</v>
+        <v>702896</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>808215</v>
+        <v>803332</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1136216498201445</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1059799282056734</v>
+        <v>0.106558199888089</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1225244930296637</v>
+        <v>0.1217841930140164</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>1223899</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1160226</v>
+        <v>1167556</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1282474</v>
+        <v>1277005</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3773771754215084</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3577443576063711</v>
+        <v>0.3600043421832969</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3954383427142529</v>
+        <v>0.3937519804410784</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1889</v>
@@ -2343,19 +2343,19 @@
         <v>1939911</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1879031</v>
+        <v>1882045</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1995346</v>
+        <v>1995224</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5785278536376663</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5603717587957001</v>
+        <v>0.5612705355488743</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5950598061556307</v>
+        <v>0.595023243567266</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3083</v>
@@ -2364,19 +2364,19 @@
         <v>3163810</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3081608</v>
+        <v>3085580</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3239414</v>
+        <v>3246492</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4796299280969612</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.467168141684137</v>
+        <v>0.4677703207963396</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4910913028492517</v>
+        <v>0.4921643567488111</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>1257296</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1197769</v>
+        <v>1205613</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1312240</v>
+        <v>1318786</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3876747984372205</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3693203380989286</v>
+        <v>0.3717388337818524</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4046164673415439</v>
+        <v>0.4066347531794666</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1029</v>
@@ -2414,19 +2414,19 @@
         <v>1048141</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>997421</v>
+        <v>996949</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1101150</v>
+        <v>1099726</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3125807779298274</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2974546558524602</v>
+        <v>0.2973140839825996</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3283892909791853</v>
+        <v>0.3279646088152955</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2290</v>
@@ -2435,19 +2435,19 @@
         <v>2305437</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2232094</v>
+        <v>2219513</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2378820</v>
+        <v>2380012</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3495015724036676</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3383829094224306</v>
+        <v>0.3364755464362655</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3606263779104635</v>
+        <v>0.3608071005435427</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>38470</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27963</v>
+        <v>26922</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55136</v>
+        <v>51343</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05500500094416029</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0399822391060887</v>
+        <v>0.03849367195379765</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07883588415577766</v>
+        <v>0.07341118896105223</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -2800,19 +2800,19 @@
         <v>4123</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1045</v>
+        <v>991</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10143</v>
+        <v>9278</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005940305653156867</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001505183433583208</v>
+        <v>0.001427600090144272</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01461480365257583</v>
+        <v>0.0133683877338654</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -2821,19 +2821,19 @@
         <v>42592</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31170</v>
+        <v>30875</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56569</v>
+        <v>56577</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0305671708315429</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02237007871633732</v>
+        <v>0.02215791919138073</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04059763305887466</v>
+        <v>0.0406037111942049</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>87022</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70469</v>
+        <v>70358</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>106108</v>
+        <v>105046</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1244270963017465</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.100758101231991</v>
+        <v>0.1005996100470184</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1517171841373684</v>
+        <v>0.1501987827066734</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -2871,19 +2871,19 @@
         <v>77169</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>61280</v>
+        <v>60547</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>94916</v>
+        <v>95813</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1111919942471537</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08829735467031265</v>
+        <v>0.08724125972053029</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1367637849337411</v>
+        <v>0.1380564952129089</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>151</v>
@@ -2892,19 +2892,19 @@
         <v>164191</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>141142</v>
+        <v>140310</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>191378</v>
+        <v>194312</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1178350411872699</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1012930800553059</v>
+        <v>0.1006961383036069</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1373459820232583</v>
+        <v>0.1394516701243755</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>389668</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>364502</v>
+        <v>362387</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>418613</v>
+        <v>416210</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5571603209000646</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.521176419226866</v>
+        <v>0.5181527710886448</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5985454497289333</v>
+        <v>0.5951099271048645</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>419</v>
@@ -2942,19 +2942,19 @@
         <v>447409</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>422081</v>
+        <v>416828</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>471946</v>
+        <v>471389</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6446672410349825</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6081723273581879</v>
+        <v>0.6006035097698724</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6800234416982973</v>
+        <v>0.6792198539675045</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>794</v>
@@ -2963,19 +2963,19 @@
         <v>837077</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>802371</v>
+        <v>799577</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>874094</v>
+        <v>875591</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6007452088781138</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5758373106944806</v>
+        <v>0.5738325415777704</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6273110268561944</v>
+        <v>0.6283856452885072</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>184223</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>158511</v>
+        <v>162308</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>206965</v>
+        <v>211372</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2634075818540286</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2266440120487446</v>
+        <v>0.232072571980988</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2959253185937086</v>
+        <v>0.3022267038506458</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>156</v>
@@ -3013,19 +3013,19 @@
         <v>165315</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>142810</v>
+        <v>144310</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>190806</v>
+        <v>189249</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.238200459064707</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2057742828388786</v>
+        <v>0.2079345011665025</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2749311352601325</v>
+        <v>0.2726872340121382</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>331</v>
@@ -3034,19 +3034,19 @@
         <v>349537</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>316855</v>
+        <v>315402</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>382322</v>
+        <v>381970</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2508525791030734</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2273973961085184</v>
+        <v>0.2263544747839249</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2743808274792561</v>
+        <v>0.2741285076034349</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>42200</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31026</v>
+        <v>31544</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>57684</v>
+        <v>56873</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04158652679870294</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03057487579827175</v>
+        <v>0.031085360904049</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05684527344411987</v>
+        <v>0.05604542585342723</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -3159,19 +3159,19 @@
         <v>5047</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1962</v>
+        <v>1973</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11260</v>
+        <v>11227</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.004905579259189203</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001906645625445417</v>
+        <v>0.001917839743463229</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01094391397289218</v>
+        <v>0.01091196474277255</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>45</v>
@@ -3180,19 +3180,19 @@
         <v>47248</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>34936</v>
+        <v>34020</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>63393</v>
+        <v>62910</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02311910880171767</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01709458791215784</v>
+        <v>0.01664642213576632</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03101938630286945</v>
+        <v>0.03078292034592778</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>127781</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107717</v>
+        <v>106700</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>149768</v>
+        <v>152760</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1259216521534784</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1061503129331945</v>
+        <v>0.1051478454768753</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1475889145726266</v>
+        <v>0.1505379544188498</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>87</v>
@@ -3230,19 +3230,19 @@
         <v>93980</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75795</v>
+        <v>76115</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>113185</v>
+        <v>113603</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09133926267920316</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07366565372983465</v>
+        <v>0.0739762891670345</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1100053241943136</v>
+        <v>0.1104116086051219</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>205</v>
@@ -3251,19 +3251,19 @@
         <v>221760</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>194307</v>
+        <v>193892</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>250554</v>
+        <v>255291</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1085107758104391</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09507760135729552</v>
+        <v>0.09487422024316984</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1226001132584629</v>
+        <v>0.1249179107449484</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>532654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>501555</v>
+        <v>497772</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>566652</v>
+        <v>568747</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5249051687199385</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4942582045817418</v>
+        <v>0.490530779303617</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5584082330267652</v>
+        <v>0.5604731289820537</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>555</v>
@@ -3301,19 +3301,19 @@
         <v>609988</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>575935</v>
+        <v>577159</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>641010</v>
+        <v>642827</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5928494334485253</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5597537300722273</v>
+        <v>0.5609428625914415</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6230003245140678</v>
+        <v>0.6247663758573631</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1043</v>
@@ -3322,19 +3322,19 @@
         <v>1142642</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1096244</v>
+        <v>1091583</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1193434</v>
+        <v>1186188</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5591124403802188</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5364093507543185</v>
+        <v>0.5341285249498935</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.58396591939206</v>
+        <v>0.5804204334246118</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>312128</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>283428</v>
+        <v>281360</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>344525</v>
+        <v>342693</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3075866523278801</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2793050900264222</v>
+        <v>0.2772668307621384</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3395126292605984</v>
+        <v>0.337707346115562</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>290</v>
@@ -3372,19 +3372,19 @@
         <v>319893</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>289856</v>
+        <v>290707</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>352019</v>
+        <v>351823</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3109057246130824</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2817124863496759</v>
+        <v>0.2825394023619384</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3421288810141324</v>
+        <v>0.3419383065962585</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>577</v>
@@ -3393,19 +3393,19 @@
         <v>632021</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>587304</v>
+        <v>589507</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>676865</v>
+        <v>673297</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3092576750076245</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2873771547313766</v>
+        <v>0.2884547967668716</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.331200478896378</v>
+        <v>0.3294547346667894</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>28502</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19152</v>
+        <v>18999</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41123</v>
+        <v>40716</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03782152068498976</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02541351325138223</v>
+        <v>0.02521054480167783</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05456960600604518</v>
+        <v>0.05402878742594271</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -3518,19 +3518,19 @@
         <v>5131</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1899</v>
+        <v>1206</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11285</v>
+        <v>11200</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006677088804215046</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002471702198868935</v>
+        <v>0.0015692358147745</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01468504806242085</v>
+        <v>0.01457472183156369</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -3539,19 +3539,19 @@
         <v>33633</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22792</v>
+        <v>23957</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>46919</v>
+        <v>47231</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02209713384000579</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0149743525734293</v>
+        <v>0.01573956160482488</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03082581385489355</v>
+        <v>0.03103112299305317</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>140045</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>119963</v>
+        <v>118792</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>166770</v>
+        <v>165473</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1858358495575189</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1591867568794336</v>
+        <v>0.1576340127861598</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.221299568246023</v>
+        <v>0.219577878136414</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>72</v>
@@ -3589,19 +3589,19 @@
         <v>80351</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>63308</v>
+        <v>63748</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>100823</v>
+        <v>99208</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1045597251013903</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.08238193467010811</v>
+        <v>0.08295413724828661</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1311999337796125</v>
+        <v>0.1290986206017384</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>203</v>
@@ -3610,19 +3610,19 @@
         <v>220396</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>195106</v>
+        <v>192403</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>253137</v>
+        <v>249679</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1448006742458722</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1281847628930363</v>
+        <v>0.12640887961682</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1663112901458714</v>
+        <v>0.1640397999399614</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>344877</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>315323</v>
+        <v>314978</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>374883</v>
+        <v>372043</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4576413140312469</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4184248496053759</v>
+        <v>0.4179663013579295</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4974586520770266</v>
+        <v>0.4936905293066269</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>407</v>
@@ -3660,19 +3660,19 @@
         <v>454894</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>425402</v>
+        <v>425465</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>481846</v>
+        <v>485327</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5919484194973389</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5535704630679193</v>
+        <v>0.5536526837753408</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6270207784550933</v>
+        <v>0.6315504924513669</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>720</v>
@@ -3681,19 +3681,19 @@
         <v>799771</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>756386</v>
+        <v>759872</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>841673</v>
+        <v>842924</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5254510878766498</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4969470146257972</v>
+        <v>0.4992376769143373</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5529810030985741</v>
+        <v>0.5538029531026751</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>240172</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>213459</v>
+        <v>214991</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>270089</v>
+        <v>265961</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3187013157262444</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2832544161630053</v>
+        <v>0.2852865614283913</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3584008324535014</v>
+        <v>0.3529230437304154</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>213</v>
@@ -3731,19 +3731,19 @@
         <v>228093</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>203250</v>
+        <v>200760</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>253385</v>
+        <v>253013</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2968147665970558</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2644868963693131</v>
+        <v>0.2612468005160119</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3297270935936714</v>
+        <v>0.3292432020370522</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>427</v>
@@ -3752,19 +3752,19 @@
         <v>468265</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>430963</v>
+        <v>430457</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>507065</v>
+        <v>504653</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3076511040374721</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2831435080243858</v>
+        <v>0.2828114901064538</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3331427872382585</v>
+        <v>0.3315584279996054</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>28494</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19179</v>
+        <v>19603</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40222</v>
+        <v>40770</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03046522390607545</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02050537514974118</v>
+        <v>0.02095932300777174</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04300498070182553</v>
+        <v>0.0435899943344042</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -3877,19 +3877,19 @@
         <v>9492</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4497</v>
+        <v>3995</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19083</v>
+        <v>18132</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.009116908995196883</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004319571222809476</v>
+        <v>0.003836592353478726</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01832844636508893</v>
+        <v>0.017414743427806</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -3898,19 +3898,19 @@
         <v>37986</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26496</v>
+        <v>27126</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>52904</v>
+        <v>51976</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0192192911301655</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01340563537514717</v>
+        <v>0.0137243120059521</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02676675695288008</v>
+        <v>0.02629727246280718</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>106285</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>87482</v>
+        <v>86792</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>126433</v>
+        <v>127078</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1136381495890106</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09353392584449093</v>
+        <v>0.09279589986479451</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1351800692618064</v>
+        <v>0.1358697082038356</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>76</v>
@@ -3948,19 +3948,19 @@
         <v>77928</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>62228</v>
+        <v>61080</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>94920</v>
+        <v>96659</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07484660013231295</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05976702579993766</v>
+        <v>0.05866477848969415</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09116650924275546</v>
+        <v>0.092836858346209</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>178</v>
@@ -3969,19 +3969,19 @@
         <v>184213</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>159492</v>
+        <v>158484</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>211833</v>
+        <v>211260</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09320341460947801</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08069567422158279</v>
+        <v>0.0801855358931549</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1071775482507158</v>
+        <v>0.1068878908360169</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>460717</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>426893</v>
+        <v>430463</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>489606</v>
+        <v>491147</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.492589489749471</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.45642556353477</v>
+        <v>0.4602422292042213</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5234773910803975</v>
+        <v>0.5251246670787065</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>604</v>
@@ -4019,19 +4019,19 @@
         <v>628570</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>592784</v>
+        <v>596058</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>660226</v>
+        <v>659568</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6037162707637423</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5693455145986445</v>
+        <v>0.5724895378789124</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6341206302464696</v>
+        <v>0.6334883011872009</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1048</v>
@@ -4040,19 +4040,19 @@
         <v>1089288</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1043763</v>
+        <v>1041596</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1135567</v>
+        <v>1132452</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5511292065424312</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5280961209530947</v>
+        <v>0.5269992233580026</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5745445173459712</v>
+        <v>0.5729685127207342</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>339800</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>310490</v>
+        <v>309548</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>371247</v>
+        <v>369538</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3633071367554428</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3319702338835417</v>
+        <v>0.3309622052735383</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3969297511215522</v>
+        <v>0.395103043531247</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>305</v>
@@ -4090,19 +4090,19 @@
         <v>325178</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>295731</v>
+        <v>294313</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>356426</v>
+        <v>355753</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3123202201087478</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2840376533020627</v>
+        <v>0.2826757140984771</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3423327169874085</v>
+        <v>0.3416864010779491</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>629</v>
@@ -4111,19 +4111,19 @@
         <v>664978</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>621991</v>
+        <v>625262</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>706589</v>
+        <v>710179</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3364480877179252</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3146985040264991</v>
+        <v>0.3163538324460134</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3575015762090538</v>
+        <v>0.3593177286914933</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>137666</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>116056</v>
+        <v>116742</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>163940</v>
+        <v>164886</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04045390667708208</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03410367351709866</v>
+        <v>0.03430531483470732</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04817449958421983</v>
+        <v>0.04845270943860773</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -4236,19 +4236,19 @@
         <v>23793</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15178</v>
+        <v>15716</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>36097</v>
+        <v>34782</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.006735461333052977</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004296639091594023</v>
+        <v>0.004449032563658473</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01021841052585506</v>
+        <v>0.009846205180528643</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>154</v>
@@ -4257,19 +4257,19 @@
         <v>161460</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>138451</v>
+        <v>134998</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>190996</v>
+        <v>187130</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02327983785197678</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01996230826152902</v>
+        <v>0.019464575422729</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02753852479760413</v>
+        <v>0.02698114478170509</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>461133</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>419100</v>
+        <v>417225</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>503802</v>
+        <v>503146</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1355063500276079</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1231547514476538</v>
+        <v>0.122603714239051</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1480448965378152</v>
+        <v>0.1478521012757231</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>303</v>
@@ -4307,19 +4307,19 @@
         <v>329427</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>294463</v>
+        <v>291090</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>368175</v>
+        <v>367882</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09325457892178005</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08335679820470775</v>
+        <v>0.08240201391912912</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1042233021629797</v>
+        <v>0.104140404194232</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>737</v>
@@ -4328,19 +4328,19 @@
         <v>790561</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>738030</v>
+        <v>737479</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>850401</v>
+        <v>849018</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1139859383493578</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1064119115537841</v>
+        <v>0.1063323966256892</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1226139224999865</v>
+        <v>0.1224146041480724</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>1727916</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1663329</v>
+        <v>1668046</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1785867</v>
+        <v>1789934</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5077570307431867</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4887776704461981</v>
+        <v>0.4901637723460523</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5247859838206179</v>
+        <v>0.5259811140557372</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1985</v>
@@ -4378,19 +4378,19 @@
         <v>2140860</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2080189</v>
+        <v>2084985</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2201516</v>
+        <v>2203685</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6060365070861425</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5888615491993443</v>
+        <v>0.5902192194881354</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6232068487309652</v>
+        <v>0.6238208660240042</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3605</v>
@@ -4399,19 +4399,19 @@
         <v>3868777</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3784465</v>
+        <v>3783826</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3953186</v>
+        <v>3948510</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5578144540196166</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.545658111982631</v>
+        <v>0.5455659706286526</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.569984935888878</v>
+        <v>0.5693106097261661</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>1076322</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1021821</v>
+        <v>1016928</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1134753</v>
+        <v>1134576</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3162827125521234</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3002672945178352</v>
+        <v>0.2988294681374903</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3334530710047529</v>
+        <v>0.3334010025642102</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>964</v>
@@ -4449,19 +4449,19 @@
         <v>1038479</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>982689</v>
+        <v>980561</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1097956</v>
+        <v>1090976</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2939734526590244</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2781805060108101</v>
+        <v>0.2775779116784686</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3108101819283514</v>
+        <v>0.3088344503183942</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1964</v>
@@ -4470,19 +4470,19 @@
         <v>2114801</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2030632</v>
+        <v>2038234</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2189644</v>
+        <v>2188042</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3049197697790488</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2927839713769637</v>
+        <v>0.2938800589553052</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3157109080424497</v>
+        <v>0.3154798960279724</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>16391</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9335</v>
+        <v>8787</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26966</v>
+        <v>26204</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.024574640320436</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01399625810680281</v>
+        <v>0.01317424379231957</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04042976273698193</v>
+        <v>0.0392871334539755</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4835,19 +4835,19 @@
         <v>2705</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6985</v>
+        <v>7995</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004033911416201813</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001231185058284449</v>
+        <v>0.001224463228559234</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01041661547791223</v>
+        <v>0.01192166927151767</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -4856,19 +4856,19 @@
         <v>19096</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11708</v>
+        <v>11336</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29582</v>
+        <v>28781</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01427658074662888</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008753021157809581</v>
+        <v>0.008474730541817669</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02211592284697038</v>
+        <v>0.02151681270183335</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>67656</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52480</v>
+        <v>52245</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>86093</v>
+        <v>85097</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1014347812706179</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07868219670066873</v>
+        <v>0.07832917504414326</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1290763867786997</v>
+        <v>0.1275825058849658</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -4906,19 +4906,19 @@
         <v>41168</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30310</v>
+        <v>29731</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>55664</v>
+        <v>55670</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06138968359773415</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04519792689302963</v>
+        <v>0.04433472372704208</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08300610709663375</v>
+        <v>0.08301519706072927</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>105</v>
@@ -4927,19 +4927,19 @@
         <v>108824</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>90407</v>
+        <v>89856</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>132202</v>
+        <v>132289</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08135823951803803</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06758922032782233</v>
+        <v>0.06717761240246671</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0988355971980408</v>
+        <v>0.09890072713484382</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>369916</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>342482</v>
+        <v>343890</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>396038</v>
+        <v>396600</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5546021438392604</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5134719312088892</v>
+        <v>0.5155819590027813</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.593766269464742</v>
+        <v>0.5946083269961669</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>445</v>
@@ -4977,19 +4977,19 @@
         <v>442807</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>418468</v>
+        <v>415988</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>467553</v>
+        <v>464922</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6603149307723362</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6240206798069344</v>
+        <v>0.6203217114857883</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6972165172259817</v>
+        <v>0.6932919381310275</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>804</v>
@@ -4998,19 +4998,19 @@
         <v>812722</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>775839</v>
+        <v>776984</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>851487</v>
+        <v>848111</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6076010701492993</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5800266481329344</v>
+        <v>0.5808830216691451</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6365818053017838</v>
+        <v>0.6340577201189219</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>213030</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>187757</v>
+        <v>189724</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>234632</v>
+        <v>237263</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3193884345696856</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2814971676494534</v>
+        <v>0.2844467148385671</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3517757932265922</v>
+        <v>0.3557205983400277</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>175</v>
@@ -5048,19 +5048,19 @@
         <v>183920</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>161471</v>
+        <v>163329</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>207703</v>
+        <v>208195</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2742614742137279</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2407862681055108</v>
+        <v>0.2435569425147067</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3097264734147699</v>
+        <v>0.310461411306696</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>381</v>
@@ -5069,19 +5069,19 @@
         <v>396949</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>362170</v>
+        <v>364790</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>435150</v>
+        <v>431922</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2967641095860338</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2707624175479845</v>
+        <v>0.2727213611797045</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3253234268022406</v>
+        <v>0.3229104893079567</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>22922</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14547</v>
+        <v>14458</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>33584</v>
+        <v>33202</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02253019476750355</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01429763171097824</v>
+        <v>0.01421099231532696</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0330091928962053</v>
+        <v>0.03263406849710909</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -5194,19 +5194,19 @@
         <v>3580</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>888</v>
+        <v>925</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8914</v>
+        <v>9873</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.003456021386161942</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0008577046854669395</v>
+        <v>0.000892700684101601</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.008605900825692549</v>
+        <v>0.009531746738560788</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -5215,19 +5215,19 @@
         <v>26502</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>17416</v>
+        <v>17037</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>38438</v>
+        <v>38287</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01290781366421377</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.008482660468188772</v>
+        <v>0.008298063542239494</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01872128069820421</v>
+        <v>0.01864777317803085</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>111954</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>93168</v>
+        <v>92327</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>133490</v>
+        <v>134523</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1100383829018218</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09157349466933806</v>
+        <v>0.09074722606383455</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1312053679245086</v>
+        <v>0.13222080329803</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -5265,19 +5265,19 @@
         <v>70948</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54717</v>
+        <v>57638</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>88619</v>
+        <v>89719</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06849791210461444</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05282742550463038</v>
+        <v>0.05564752505866646</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08555855807193759</v>
+        <v>0.08662015433807253</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>168</v>
@@ -5286,19 +5286,19 @@
         <v>182902</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>157195</v>
+        <v>158579</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>212553</v>
+        <v>210985</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08908239004019594</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07656186405149455</v>
+        <v>0.07723580933270989</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1035239874909813</v>
+        <v>0.1027599808832037</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>534027</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>503050</v>
+        <v>502278</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>567806</v>
+        <v>567381</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5248892947337174</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4944425085130056</v>
+        <v>0.4936833166564321</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5580905091181649</v>
+        <v>0.5576725507591306</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>645</v>
@@ -5336,19 +5336,19 @@
         <v>682805</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>648295</v>
+        <v>652544</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>714174</v>
+        <v>715364</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6592236143013949</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6259048887503841</v>
+        <v>0.6300074637150176</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6895093540852876</v>
+        <v>0.6906573510177421</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1136</v>
@@ -5357,19 +5357,19 @@
         <v>1216832</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1173192</v>
+        <v>1171089</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1262058</v>
+        <v>1261678</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5926571603333742</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5714019776881933</v>
+        <v>0.5703777673003215</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.61468402988725</v>
+        <v>0.6144991558206701</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>348505</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>315545</v>
+        <v>316825</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>378897</v>
+        <v>377328</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3425421275969572</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3101456709053216</v>
+        <v>0.3114038217736677</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.372413957606525</v>
+        <v>0.3708714630472817</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>252</v>
@@ -5407,19 +5407,19 @@
         <v>278439</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>249440</v>
+        <v>248625</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>309583</v>
+        <v>306340</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2688224522078287</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2408247545814058</v>
+        <v>0.2400385361561505</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2988906235214152</v>
+        <v>0.2957597242459415</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>587</v>
@@ -5428,19 +5428,19 @@
         <v>626944</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>580964</v>
+        <v>583848</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>665817</v>
+        <v>671345</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3053526359622161</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2829581709923659</v>
+        <v>0.2843628413328472</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.324285731163655</v>
+        <v>0.3269781839440588</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>20948</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13463</v>
+        <v>13273</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>34539</v>
+        <v>32076</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0277617967015668</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01784143010452515</v>
+        <v>0.01758999891993171</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04577391866955841</v>
+        <v>0.04250860239321422</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -5553,19 +5553,19 @@
         <v>3051</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8967</v>
+        <v>8255</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.003891202270221074</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001200458375601275</v>
+        <v>0.001203520004171707</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01143617092972313</v>
+        <v>0.01052853077813713</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -5574,19 +5574,19 @@
         <v>23999</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>15218</v>
+        <v>16180</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>35564</v>
+        <v>36589</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01559762512051452</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009890279518212787</v>
+        <v>0.01051559144686712</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02311376014416478</v>
+        <v>0.02378022191568302</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>101706</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>84327</v>
+        <v>81854</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>124075</v>
+        <v>123442</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1347873871332846</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1117553344533939</v>
+        <v>0.1084783194630613</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.164432495909099</v>
+        <v>0.1635930857658689</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>68</v>
@@ -5624,19 +5624,19 @@
         <v>71487</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>55912</v>
+        <v>56172</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>91178</v>
+        <v>89451</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09117435471341102</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07131043253615336</v>
+        <v>0.0716415734284494</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1162875749129285</v>
+        <v>0.1140852245246838</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>157</v>
@@ -5645,19 +5645,19 @@
         <v>173193</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>148165</v>
+        <v>149260</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>200522</v>
+        <v>200491</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1125627034937063</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09629624283227356</v>
+        <v>0.09700811882325593</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1303246893601703</v>
+        <v>0.1303045641706259</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>369415</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>340236</v>
+        <v>342631</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>398482</v>
+        <v>399115</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4895728752104085</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4509031004443522</v>
+        <v>0.4540772942824832</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5280948609178994</v>
+        <v>0.5289327604422106</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>419</v>
@@ -5695,19 +5695,19 @@
         <v>439212</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>411022</v>
+        <v>410464</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>468487</v>
+        <v>466105</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5601690359401053</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5242146885657861</v>
+        <v>0.5235041602962262</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5975064154144566</v>
+        <v>0.5944674232197481</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>765</v>
@@ -5716,19 +5716,19 @@
         <v>808627</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>767851</v>
+        <v>768330</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>849723</v>
+        <v>847506</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5255478407500984</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4990464110113279</v>
+        <v>0.4993574430098882</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5522569879856059</v>
+        <v>0.5508158291599755</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>262497</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>235159</v>
+        <v>237486</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>288726</v>
+        <v>290299</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3478779409547401</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3116486069376634</v>
+        <v>0.3147315966035883</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3826378345204415</v>
+        <v>0.3847224812322381</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>245</v>
@@ -5766,19 +5766,19 @@
         <v>270321</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>244265</v>
+        <v>245238</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>299157</v>
+        <v>297213</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3447654070762627</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3115343386279769</v>
+        <v>0.3127754000951689</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3815437554127947</v>
+        <v>0.3790644503291077</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>483</v>
@@ -5787,19 +5787,19 @@
         <v>532817</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>492912</v>
+        <v>492564</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>572071</v>
+        <v>571903</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3462918306356808</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3203562660085724</v>
+        <v>0.3201302502796349</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3718040316932494</v>
+        <v>0.3716944466216887</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>30267</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20965</v>
+        <v>19731</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42945</v>
+        <v>42344</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03257588996811078</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02256431169322588</v>
+        <v>0.02123595829278694</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04622133595926339</v>
+        <v>0.04557417270555919</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -5912,19 +5912,19 @@
         <v>7787</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3769</v>
+        <v>3215</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16555</v>
+        <v>16001</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.007500340153533455</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003630373989488212</v>
+        <v>0.003096961288095141</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01594491830227716</v>
+        <v>0.01541209589574448</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -5933,19 +5933,19 @@
         <v>38054</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27685</v>
+        <v>27656</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>52284</v>
+        <v>52647</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01934274384585464</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01407224039550424</v>
+        <v>0.01405762465914268</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02657612922479955</v>
+        <v>0.02676053727744299</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>107301</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>88946</v>
+        <v>90329</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>128007</v>
+        <v>129317</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1154873933153854</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09573137682411294</v>
+        <v>0.09722017662725216</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1377725690336752</v>
+        <v>0.13918248279933</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>79</v>
@@ -5983,19 +5983,19 @@
         <v>81548</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>64513</v>
+        <v>64373</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>102047</v>
+        <v>100501</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07854523270024687</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.0621377434837482</v>
+        <v>0.06200213226046843</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09828974294906823</v>
+        <v>0.09680069905494763</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>186</v>
@@ -6004,19 +6004,19 @@
         <v>188849</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>164266</v>
+        <v>163936</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>217508</v>
+        <v>217979</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09599186826780333</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08349602016280867</v>
+        <v>0.08332818938730868</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.110558874901135</v>
+        <v>0.1107984546878022</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>382274</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>355337</v>
+        <v>353149</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>414342</v>
+        <v>413790</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4114378519491915</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3824455246440386</v>
+        <v>0.3800914882443542</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4459523314915569</v>
+        <v>0.4453578511296646</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>538</v>
@@ -6054,19 +6054,19 @@
         <v>574818</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>540609</v>
+        <v>541097</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>606665</v>
+        <v>607747</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5536509213103621</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5207018292255419</v>
+        <v>0.5211723396489195</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5843256164941438</v>
+        <v>0.5853678895107983</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>918</v>
@@ -6075,19 +6075,19 @@
         <v>957091</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>911426</v>
+        <v>916087</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1000007</v>
+        <v>1006357</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4864881037389603</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4632765771942641</v>
+        <v>0.4656455494138756</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5083018177898845</v>
+        <v>0.5115298428439222</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>409275</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>379212</v>
+        <v>378926</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>438990</v>
+        <v>439825</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4404988647673123</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4081424768359462</v>
+        <v>0.4078350640768349</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4724808455469852</v>
+        <v>0.4733798734286627</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>330</v>
@@ -6125,19 +6125,19 @@
         <v>374078</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>346841</v>
+        <v>342660</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>407944</v>
+        <v>404715</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3603035058358576</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3340691542824097</v>
+        <v>0.3300422695068957</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3929218651945796</v>
+        <v>0.3898116699570892</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>739</v>
@@ -6146,19 +6146,19 @@
         <v>783353</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>736879</v>
+        <v>738633</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>822990</v>
+        <v>826756</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3981772841473817</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3745544698341703</v>
+        <v>0.375446104113808</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4183245337223567</v>
+        <v>0.4202387301399613</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>90528</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>72898</v>
+        <v>71337</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>113334</v>
+        <v>109956</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02687831748861133</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02164373950600001</v>
+        <v>0.02118039917804263</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03364952431854853</v>
+        <v>0.03264642371496126</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>17</v>
@@ -6271,19 +6271,19 @@
         <v>17123</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10765</v>
+        <v>10404</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>28742</v>
+        <v>27011</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.004852489886282441</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0030506347268034</v>
+        <v>0.00294848017554588</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.008145375624871011</v>
+        <v>0.007654653192280763</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>101</v>
@@ -6292,19 +6292,19 @@
         <v>107651</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>88321</v>
+        <v>87053</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>128177</v>
+        <v>128700</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01560897279885326</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01280615710367248</v>
+        <v>0.01262236018947608</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01858503724596393</v>
+        <v>0.01866095734595519</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>388618</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>353362</v>
+        <v>352602</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>426875</v>
+        <v>423844</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1153823644081584</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.104914767412393</v>
+        <v>0.1046892684813011</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1267412226214286</v>
+        <v>0.1258412597015008</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>257</v>
@@ -6342,19 +6342,19 @@
         <v>265151</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>234059</v>
+        <v>232150</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>295823</v>
+        <v>296200</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0751419405566686</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06633068477343654</v>
+        <v>0.06578970374473259</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08383410557736599</v>
+        <v>0.08394095141869183</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>616</v>
@@ -6363,19 +6363,19 @@
         <v>653769</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>603846</v>
+        <v>607101</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>705694</v>
+        <v>702418</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09479366213408577</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08755509052897295</v>
+        <v>0.0880270119830607</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1023225171723847</v>
+        <v>0.1018475377095073</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>1655632</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1596564</v>
+        <v>1598337</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1714634</v>
+        <v>1710559</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4915647164076367</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4740273667410918</v>
+        <v>0.4745537403639147</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5090828734285695</v>
+        <v>0.5078729978770817</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2047</v>
@@ -6413,19 +6413,19 @@
         <v>2139642</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2081088</v>
+        <v>2077966</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2203476</v>
+        <v>2196697</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6063587589798041</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5897649660030495</v>
+        <v>0.5888802983948709</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6244490101095006</v>
+        <v>0.6225278016258503</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3623</v>
@@ -6434,19 +6434,19 @@
         <v>3795274</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3708317</v>
+        <v>3708893</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3877145</v>
+        <v>3884689</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5502982022694679</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5376899456361238</v>
+        <v>0.5377733535135819</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5621692797723443</v>
+        <v>0.5632630065266834</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>1233307</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1175723</v>
+        <v>1172326</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1288525</v>
+        <v>1286245</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3661746016955936</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3490777234842819</v>
+        <v>0.3480690443253909</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3825690033005749</v>
+        <v>0.3818921747083792</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1002</v>
@@ -6484,19 +6484,19 @@
         <v>1106757</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1047285</v>
+        <v>1053655</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1164151</v>
+        <v>1161616</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3136468105772449</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2967928495807023</v>
+        <v>0.2985981326533309</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.329911820625828</v>
+        <v>0.3291933258380119</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2190</v>
@@ -6505,19 +6505,19 @@
         <v>2340064</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2262419</v>
+        <v>2261572</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2421381</v>
+        <v>2417411</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3392991627975931</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3280409937916782</v>
+        <v>0.3279181109927571</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3510897375620266</v>
+        <v>0.3505141753951386</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>71997</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56479</v>
+        <v>56926</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92179</v>
+        <v>91946</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1049402736199313</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08232104100157778</v>
+        <v>0.08297286128638434</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1343560977522716</v>
+        <v>0.1340167860736177</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -6870,19 +6870,19 @@
         <v>19522</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13295</v>
+        <v>12556</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27980</v>
+        <v>28176</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02676140117211885</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0182263248217401</v>
+        <v>0.01721226163931696</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03835658484655145</v>
+        <v>0.03862581452400148</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>95</v>
@@ -6891,19 +6891,19 @@
         <v>91519</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>74035</v>
+        <v>73223</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>113216</v>
+        <v>111656</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06465277371583149</v>
+        <v>0.0646527737158315</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05230169226771895</v>
+        <v>0.05172775179121769</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07998046548489679</v>
+        <v>0.07887860370330485</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>176182</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>153663</v>
+        <v>152756</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>203644</v>
+        <v>202136</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2567952930643405</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2239720837100573</v>
+        <v>0.2226510186887337</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2968224406875717</v>
+        <v>0.2946249213401061</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>231</v>
@@ -6941,19 +6941,19 @@
         <v>149566</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>131736</v>
+        <v>129424</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>165808</v>
+        <v>168922</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2050350893434094</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1805927544581225</v>
+        <v>0.1774226554222314</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2273013559260478</v>
+        <v>0.2315693269709763</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>408</v>
@@ -6962,19 +6962,19 @@
         <v>325748</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>294891</v>
+        <v>294875</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>357951</v>
+        <v>355898</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2301219843154171</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.20832321248779</v>
+        <v>0.2083120814121364</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.252871286440366</v>
+        <v>0.2514214628314145</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>238420</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>208532</v>
+        <v>210934</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>265126</v>
+        <v>268730</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3475097964663245</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3039475993708867</v>
+        <v>0.3074483923223886</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3864358183638082</v>
+        <v>0.3916892938855023</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>579</v>
@@ -7012,19 +7012,19 @@
         <v>334013</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>313675</v>
+        <v>311769</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>355833</v>
+        <v>358799</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4578875026001057</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.430007288030644</v>
+        <v>0.4273939800612345</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4878004097731314</v>
+        <v>0.4918657386034291</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>829</v>
@@ -7033,19 +7033,19 @@
         <v>572432</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>538705</v>
+        <v>539554</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>612432</v>
+        <v>608380</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.4043901489969639</v>
+        <v>0.404390148996964</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3805633617206365</v>
+        <v>0.3811631602924169</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4326474739800347</v>
+        <v>0.42978510452535</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>199481</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>175337</v>
+        <v>174697</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>225619</v>
+        <v>224809</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2907546368494038</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2555631069020945</v>
+        <v>0.2546312503539282</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3288526464977384</v>
+        <v>0.3276714341429824</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>396</v>
@@ -7083,19 +7083,19 @@
         <v>226365</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>206308</v>
+        <v>204103</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>245597</v>
+        <v>245813</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3103160068843661</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2828212704717997</v>
+        <v>0.2797975714717494</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3366812496777484</v>
+        <v>0.3369769472671304</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>628</v>
@@ -7104,19 +7104,19 @@
         <v>425846</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>394475</v>
+        <v>394900</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>459270</v>
+        <v>456710</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3008350929717875</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2786737426644059</v>
+        <v>0.2789736778382583</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3244477834972352</v>
+        <v>0.3226387657808469</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>87204</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>69041</v>
+        <v>67500</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>108249</v>
+        <v>106122</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08399632809789162</v>
+        <v>0.08399632809789159</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0665007793692009</v>
+        <v>0.06501631040023695</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.104266177870946</v>
+        <v>0.102217532351497</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>35</v>
@@ -7229,19 +7229,19 @@
         <v>27033</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19260</v>
+        <v>18388</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>36912</v>
+        <v>37319</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02534481511195309</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01805738376336952</v>
+        <v>0.01723954260675474</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03460703129359797</v>
+        <v>0.03498806617517566</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>113</v>
@@ -7250,19 +7250,19 @@
         <v>114238</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>93695</v>
+        <v>95853</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>136660</v>
+        <v>137130</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05427456303107552</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04451455977526665</v>
+        <v>0.04554013342117681</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0649276224304539</v>
+        <v>0.0651507366722409</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>215261</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>189031</v>
+        <v>187543</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>242383</v>
+        <v>246329</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2073414772356948</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1820769524583995</v>
+        <v>0.1806438687667427</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2334661859919314</v>
+        <v>0.2372670538527741</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>269</v>
@@ -7300,19 +7300,19 @@
         <v>202384</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>181375</v>
+        <v>180386</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>226686</v>
+        <v>226661</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1897443382837232</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1700472486306415</v>
+        <v>0.1691197353480511</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2125280500712095</v>
+        <v>0.2125050026005409</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>470</v>
@@ -7321,19 +7321,19 @@
         <v>417645</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>381411</v>
+        <v>383715</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>457119</v>
+        <v>454014</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1984240938102407</v>
+        <v>0.1984240938102406</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1812090067656525</v>
+        <v>0.1823040661763234</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2171782390848436</v>
+        <v>0.2157029436938733</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>379121</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>346098</v>
+        <v>344031</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>414466</v>
+        <v>415154</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3651730967202955</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3333653493497743</v>
+        <v>0.3313746710103958</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3992182771773831</v>
+        <v>0.3998805082514547</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>704</v>
@@ -7371,19 +7371,19 @@
         <v>485126</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>458610</v>
+        <v>458336</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>514054</v>
+        <v>514633</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4548275142955703</v>
+        <v>0.4548275142955702</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4299669883655685</v>
+        <v>0.4297102695021044</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4819484447655605</v>
+        <v>0.4824909564289676</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1049</v>
@@ -7392,19 +7392,19 @@
         <v>864247</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>820474</v>
+        <v>820675</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>905544</v>
+        <v>913814</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4106056422884446</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3898091603326485</v>
+        <v>0.3899043231179708</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4302260482581897</v>
+        <v>0.4341551647544267</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>356608</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>323535</v>
+        <v>322301</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>393157</v>
+        <v>390633</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.343489097946118</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.311632382290318</v>
+        <v>0.3104439204695333</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3786934536424361</v>
+        <v>0.376262030968743</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>501</v>
@@ -7442,19 +7442,19 @@
         <v>352072</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>324892</v>
+        <v>325311</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>377974</v>
+        <v>380556</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3300833323087535</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3046008417712907</v>
+        <v>0.3049934252369347</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3543671467681543</v>
+        <v>0.3567885240537307</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>836</v>
@@ -7463,19 +7463,19 @@
         <v>708680</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>664254</v>
+        <v>662879</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>752181</v>
+        <v>752833</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3366957008702393</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3155885438014268</v>
+        <v>0.3149355461189371</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.357362717863121</v>
+        <v>0.3576726181799518</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>36326</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23548</v>
+        <v>24451</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55073</v>
+        <v>55802</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04550735635991424</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02950056886674254</v>
+        <v>0.03063117143855812</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06899369313975684</v>
+        <v>0.06990648481905938</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -7588,19 +7588,19 @@
         <v>15203</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9180</v>
+        <v>9028</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>25446</v>
+        <v>26422</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01885155367633378</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01138268945448898</v>
+        <v>0.01119389869962465</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0315518187063801</v>
+        <v>0.03276171875679405</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -7609,19 +7609,19 @@
         <v>51529</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37544</v>
+        <v>37285</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>72586</v>
+        <v>72020</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0321109513071476</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0233960490673309</v>
+        <v>0.02323470665956391</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04523301431162414</v>
+        <v>0.04488002903076557</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>179754</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>153910</v>
+        <v>151826</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>213420</v>
+        <v>209764</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2251896316498046</v>
+        <v>0.2251896316498047</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1928135022448688</v>
+        <v>0.1902024307078926</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2673649992710374</v>
+        <v>0.2627852838544781</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>181</v>
@@ -7659,19 +7659,19 @@
         <v>139270</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>122255</v>
+        <v>120240</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>161244</v>
+        <v>158885</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1726880281970729</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1515909191330995</v>
+        <v>0.1490922660360892</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1999348521671932</v>
+        <v>0.1970093798389728</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>319</v>
@@ -7680,19 +7680,19 @@
         <v>319024</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>285356</v>
+        <v>287731</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>352715</v>
+        <v>356527</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.1988039041546889</v>
+        <v>0.198803904154689</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1778233032127546</v>
+        <v>0.1793028547314268</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2197990195673515</v>
+        <v>0.2221740409887843</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>308183</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>276672</v>
+        <v>279222</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>339840</v>
+        <v>341933</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3860800799208136</v>
+        <v>0.3860800799208137</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3466050435141644</v>
+        <v>0.3497988928292438</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4257396107371405</v>
+        <v>0.4283613263526402</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>481</v>
@@ -7730,19 +7730,19 @@
         <v>385601</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>359858</v>
+        <v>360814</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>410228</v>
+        <v>415614</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4781271549692184</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4462061799646445</v>
+        <v>0.4473915447946045</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5086634213251828</v>
+        <v>0.5153415956519378</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>739</v>
@@ -7751,19 +7751,19 @@
         <v>693784</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>656054</v>
+        <v>649687</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>737374</v>
+        <v>733861</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4323401725508663</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4088284281694122</v>
+        <v>0.4048602507333925</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4595036697605518</v>
+        <v>0.4573146553298406</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>273973</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>244340</v>
+        <v>245466</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>307507</v>
+        <v>305426</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3432229320694675</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3061000753292772</v>
+        <v>0.307510470375003</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3852336364481703</v>
+        <v>0.3826267833097319</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>362</v>
@@ -7801,19 +7801,19 @@
         <v>266408</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>245426</v>
+        <v>242237</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>293331</v>
+        <v>292980</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.330333263157375</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3043158800017722</v>
+        <v>0.3003620732819167</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3637163054686546</v>
+        <v>0.3632809925356451</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>613</v>
@@ -7822,19 +7822,19 @@
         <v>540381</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>502017</v>
+        <v>501323</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>578718</v>
+        <v>581532</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3367449719872971</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3128383902553856</v>
+        <v>0.3124059167037829</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3606351082564198</v>
+        <v>0.3623887993502635</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>59051</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44758</v>
+        <v>44091</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>76088</v>
+        <v>76637</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.06030745178964024</v>
+        <v>0.06030745178964025</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0457101283172537</v>
+        <v>0.04502835695182672</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07770585099932496</v>
+        <v>0.07826657952413424</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -7947,19 +7947,19 @@
         <v>16415</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10440</v>
+        <v>10349</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25092</v>
+        <v>24905</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01477400297737354</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009396529060957358</v>
+        <v>0.009314501062520715</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02258296081097694</v>
+        <v>0.02241532427280478</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>72</v>
@@ -7968,19 +7968,19 @@
         <v>75467</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>58646</v>
+        <v>59433</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>93367</v>
+        <v>93009</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03610394695567493</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0280567990646563</v>
+        <v>0.02843351130329982</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04466756650898736</v>
+        <v>0.04449652041665983</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>163669</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>142038</v>
+        <v>139974</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>192848</v>
+        <v>189982</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1671503521888244</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1450588490562815</v>
+        <v>0.1429508279633533</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.196949903728999</v>
+        <v>0.1940228445758636</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>167</v>
@@ -8018,19 +8018,19 @@
         <v>127808</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>109814</v>
+        <v>109580</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>148194</v>
+        <v>148655</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1150294007906031</v>
+        <v>0.115029400790603</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09883506862203066</v>
+        <v>0.09862367895558426</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1333773310254868</v>
+        <v>0.1337926151122298</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>321</v>
@@ -8039,19 +8039,19 @@
         <v>291477</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>261482</v>
+        <v>262034</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>326752</v>
+        <v>327429</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1394452314034673</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1250952636623385</v>
+        <v>0.1253594883083604</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1563210310298974</v>
+        <v>0.1566452348876687</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>344011</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>311677</v>
+        <v>308905</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>374310</v>
+        <v>375000</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3513272941962037</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.318305967012727</v>
+        <v>0.3154753875006638</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3822710201994292</v>
+        <v>0.3829760365005683</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>765</v>
@@ -8089,19 +8089,19 @@
         <v>531061</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>502840</v>
+        <v>501729</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>561120</v>
+        <v>560001</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4779649335043318</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4525652321048794</v>
+        <v>0.4515656756949442</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5050181594468911</v>
+        <v>0.504011816133882</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1131</v>
@@ -8110,19 +8110,19 @@
         <v>875071</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>831198</v>
+        <v>832959</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>917673</v>
+        <v>919505</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4186420879381287</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3976528110738161</v>
+        <v>0.3984952350678667</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4390232760566137</v>
+        <v>0.4398996865229918</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>412443</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>381258</v>
+        <v>381997</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>444492</v>
+        <v>450635</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4212149018253316</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3893667789673415</v>
+        <v>0.3901215135582679</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4539461212326156</v>
+        <v>0.4602200018836087</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>599</v>
@@ -8160,19 +8160,19 @@
         <v>435804</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>404959</v>
+        <v>408139</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>464781</v>
+        <v>467218</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3922316627276916</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.364470362944126</v>
+        <v>0.3673331605503419</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4183112986078646</v>
+        <v>0.4205044971208647</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1029</v>
@@ -8181,19 +8181,19 @@
         <v>848246</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>803198</v>
+        <v>802926</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>894047</v>
+        <v>893118</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.405808733702729</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3842571598481583</v>
+        <v>0.3841272285665417</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4277203421946741</v>
+        <v>0.4272756539045715</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>254579</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>223092</v>
+        <v>222859</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>291947</v>
+        <v>292556</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07270188621585909</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06371006851335341</v>
+        <v>0.06364345939961594</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08337331406488746</v>
+        <v>0.083547152451829</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>102</v>
@@ -8306,19 +8306,19 @@
         <v>78173</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>63881</v>
+        <v>62671</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>96120</v>
+        <v>95209</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.02105026876524909</v>
+        <v>0.0210502687652491</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01720163877281773</v>
+        <v>0.01687591907545384</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02588288922619129</v>
+        <v>0.02563744418721535</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>323</v>
@@ -8327,19 +8327,19 @@
         <v>332752</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>295335</v>
+        <v>300069</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>372443</v>
+        <v>375792</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04611737343479754</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04093159527647727</v>
+        <v>0.04158769992461121</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05161828111583402</v>
+        <v>0.05208242005127866</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>734866</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>684152</v>
+        <v>678793</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>791683</v>
+        <v>788349</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.2098608943376966</v>
+        <v>0.2098608943376967</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.195378189676593</v>
+        <v>0.1938476652877</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2260864986448042</v>
+        <v>0.2251343158730075</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>848</v>
@@ -8377,19 +8377,19 @@
         <v>619028</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>582430</v>
+        <v>581122</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>662852</v>
+        <v>661265</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.166689840996471</v>
+        <v>0.1666898409964711</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1568349345285945</v>
+        <v>0.1564827006342339</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1784906237376361</v>
+        <v>0.1780632303838578</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1518</v>
@@ -8398,19 +8398,19 @@
         <v>1353894</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1283261</v>
+        <v>1286650</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1421164</v>
+        <v>1428540</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1876412335416116</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1778518274326458</v>
+        <v>0.1783216285835715</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1969644040433786</v>
+        <v>0.1979866551651794</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>1269733</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1206593</v>
+        <v>1210447</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1334576</v>
+        <v>1336894</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3626065592916825</v>
+        <v>0.3626065592916826</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3445753625378029</v>
+        <v>0.3456759173840639</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3811241311751546</v>
+        <v>0.3817861833032766</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2529</v>
@@ -8448,19 +8448,19 @@
         <v>1735802</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1682720</v>
+        <v>1683299</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1790107</v>
+        <v>1788301</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4674109801607486</v>
+        <v>0.4674109801607487</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4531172701154302</v>
+        <v>0.453273279031475</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4820342528917215</v>
+        <v>0.4815479104988791</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3748</v>
@@ -8469,19 +8469,19 @@
         <v>3005535</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2919959</v>
+        <v>2922078</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3088059</v>
+        <v>3091116</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4165482285679568</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4046878898145375</v>
+        <v>0.4049815922715244</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4279855438230462</v>
+        <v>0.4284092611946723</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>1242504</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1184066</v>
+        <v>1179511</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1311112</v>
+        <v>1309941</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3548306601547617</v>
+        <v>0.3548306601547618</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3381419319122425</v>
+        <v>0.336841231192187</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3744234534685325</v>
+        <v>0.3740889906060939</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1858</v>
@@ -8519,19 +8519,19 @@
         <v>1280649</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1225276</v>
+        <v>1227183</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1326367</v>
+        <v>1332685</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.3448489100775312</v>
+        <v>0.3448489100775313</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3299383697459097</v>
+        <v>0.3304517592286549</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3571596833465077</v>
+        <v>0.3588611141365993</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3106</v>
@@ -8540,19 +8540,19 @@
         <v>2523153</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2445797</v>
+        <v>2449622</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2598370</v>
+        <v>2609025</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3496931644556341</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3389720938003011</v>
+        <v>0.339502133854407</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3601177515336724</v>
+        <v>0.3615944727619541</v>
       </c>
     </row>
     <row r="28">
